--- a/CPUS/cpu/tests/testresults.xlsx
+++ b/CPUS/cpu/tests/testresults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>2-bit dynamic predictor (ns)</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Branchtest.asm</t>
+  </si>
+  <si>
+    <t>numbersum.asm</t>
+  </si>
+  <si>
+    <t>factorial.asm</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>gcd.asm</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,12 +296,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +606,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,11 +620,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,8 +688,12 @@
         <f xml:space="preserve"> B6 / 20</f>
         <v>127</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -684,11 +703,15 @@
         <v>720</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:C12" si="0" xml:space="preserve"> B7 / 20</f>
+        <f xml:space="preserve"> B7 / 20</f>
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -698,49 +721,74 @@
         <v>720</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> B8 / 20</f>
         <v>36</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4100</v>
+      </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
+        <f xml:space="preserve"> B9 / 20</f>
+        <v>205</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>960</v>
+      </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
+        <f xml:space="preserve"> B10 / 20</f>
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1020</v>
+      </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
+        <f xml:space="preserve"> B11 / 20</f>
+        <v>51</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="8">
-        <f xml:space="preserve"> B12 / 20</f>
-        <v>0</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
     </row>
